--- a/P12/full_credit/JADE_Scrum_Sprint_6.xlsx
+++ b/P12/full_credit/JADE_Scrum_Sprint_6.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="193">
   <si>
     <t xml:space="preserve">Product Name:</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished in Sprint 6</t>
   </si>
   <si>
     <t xml:space="preserve">Create a new manager</t>
@@ -1039,7 +1042,1537 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 02 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="69495307"/>
+        <c:axId val="35629104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69495307"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="35629104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35629104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69495307"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 03 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="77250536"/>
+        <c:axId val="64111635"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77250536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64111635"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64111635"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77250536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="58234914"/>
+        <c:axId val="4742018"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="58234914"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4742018"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4742018"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58234914"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 05 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="52909722"/>
+        <c:axId val="42021300"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52909722"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42021300"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42021300"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52909722"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 06 Backlog'!$B$7:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="23239492"/>
+        <c:axId val="99065771"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="23239492"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99065771"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99065771"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23239492"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1190,18 +2723,18 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5241514"/>
-        <c:axId val="67215163"/>
+        <c:axId val="20333842"/>
+        <c:axId val="62409375"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5241514"/>
+        <c:axId val="20333842"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1268,12 +2801,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67215163"/>
+        <c:crossAx val="62409375"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67215163"/>
+        <c:axId val="62409375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1348,7 +2881,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5241514"/>
+        <c:crossAx val="20333842"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,7 +2908,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1503,11 +3036,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="30131640"/>
-        <c:axId val="54571912"/>
+        <c:axId val="1704337"/>
+        <c:axId val="84548069"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30131640"/>
+        <c:axId val="1704337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +3105,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54571912"/>
+        <c:crossAx val="84548069"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1580,7 +3113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54571912"/>
+        <c:axId val="84548069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,1537 +3187,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30131640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 02 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="63435016"/>
-        <c:axId val="5998753"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="63435016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="5998753"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="5998753"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63435016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 03 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="70727871"/>
-        <c:axId val="61691905"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="70727871"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61691905"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="61691905"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="70727871"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 04 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="71594584"/>
-        <c:axId val="19630044"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="71594584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="19630044"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="19630044"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="71594584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 05 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="35430983"/>
-        <c:axId val="23373833"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="35430983"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23373833"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="23373833"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="35430983"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Sprint Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 06 Backlog'!$B$7:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="22484627"/>
-        <c:axId val="83860827"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="22484627"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83860827"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83860827"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" lang="en-US" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="22484627"/>
+        <c:crossAx val="1704337"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3464,8 +3467,8 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N49" activeCellId="0" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="B18" s="3" t="n">
         <f aca="false">B17-C18</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10" t="n">
         <f aca="false">COUNTIF(F$24:F$66,"Finished in Sprint 6")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="12"/>
@@ -4574,22 +4577,26 @@
       <c r="D50" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
+      <c r="E50" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="G50" s="14" t="s">
         <v>64</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J50" s="19"/>
     </row>
     <row r="51" s="24" customFormat="true" ht="35.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B51" s="11" t="n">
         <v>25</v>
@@ -4606,18 +4613,18 @@
         <v>64</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B52" s="11" t="n">
         <v>26</v>
@@ -4634,16 +4641,16 @@
         <v>36</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" s="11" t="n">
         <v>27</v>
@@ -4660,16 +4667,16 @@
         <v>36</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B54" s="11" t="n">
         <v>28</v>
@@ -4686,16 +4693,16 @@
         <v>36</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" s="11" t="n">
         <v>29</v>
@@ -4712,16 +4719,16 @@
         <v>76</v>
       </c>
       <c r="H55" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J55" s="19"/>
     </row>
     <row r="56" s="24" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="11" t="n">
         <v>30</v>
@@ -4738,18 +4745,18 @@
         <v>36</v>
       </c>
       <c r="H56" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" s="24" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B57" s="11" t="n">
         <v>31</v>
@@ -4766,18 +4773,18 @@
         <v>76</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B58" s="11" t="n">
         <v>32</v>
@@ -4794,16 +4801,16 @@
         <v>36</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B59" s="11" t="n">
         <v>33</v>
@@ -4820,16 +4827,16 @@
         <v>36</v>
       </c>
       <c r="H59" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B60" s="11" t="n">
         <v>34</v>
@@ -4846,16 +4853,16 @@
         <v>36</v>
       </c>
       <c r="H60" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" s="11" t="n">
         <v>35</v>
@@ -4872,7 +4879,7 @@
         <v>64</v>
       </c>
       <c r="H61" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I61" s="19" t="s">
         <v>66</v>
@@ -4881,7 +4888,7 @@
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="11" t="n">
         <v>36</v>
@@ -4898,16 +4905,16 @@
         <v>36</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" s="11" t="n">
         <v>37</v>
@@ -4924,16 +4931,16 @@
         <v>76</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B64" s="11" t="n">
         <v>38</v>
@@ -4950,16 +4957,16 @@
         <v>36</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B65" s="11" t="n">
         <v>39</v>
@@ -4976,10 +4983,10 @@
         <v>36</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J65" s="19"/>
     </row>
@@ -5051,7 +5058,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5078,21 +5085,21 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>44474</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="30" t="n">
         <f aca="false">B2+7</f>
@@ -5105,10 +5112,10 @@
     </row>
     <row r="4" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -5129,7 +5136,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -5137,7 +5144,7 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="27" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -5150,7 +5157,7 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27" t="n">
         <f aca="false">B7-C8</f>
@@ -5166,7 +5173,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="n">
         <f aca="false">B8-C9</f>
@@ -5182,7 +5189,7 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="27" t="n">
         <f aca="false">B9-C10</f>
@@ -5198,7 +5205,7 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="n">
         <f aca="false">B10-C11</f>
@@ -5214,7 +5221,7 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="27" t="n">
         <f aca="false">B11-C12</f>
@@ -5230,7 +5237,7 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="27" t="n">
         <f aca="false">B12-C13</f>
@@ -5246,7 +5253,7 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">B13-C14</f>
@@ -5268,18 +5275,18 @@
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>29</v>
@@ -5294,7 +5301,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="37"/>
     </row>
@@ -6036,7 +6043,7 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="30" t="n">
         <f aca="false">'Sprint 01 Backlog'!B3</f>
@@ -6044,14 +6051,14 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="30" t="n">
         <f aca="false">B2+7</f>
@@ -6064,10 +6071,10 @@
     </row>
     <row r="4" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -6088,7 +6095,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -6096,7 +6103,7 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="27" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -6109,7 +6116,7 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27" t="n">
         <f aca="false">B7-C8</f>
@@ -6125,7 +6132,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="n">
         <f aca="false">B8-C9</f>
@@ -6141,7 +6148,7 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="27" t="n">
         <f aca="false">B9-C10</f>
@@ -6157,7 +6164,7 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="n">
         <f aca="false">B10-C11</f>
@@ -6173,7 +6180,7 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="27" t="n">
         <f aca="false">B11-C12</f>
@@ -6189,7 +6196,7 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="27" t="n">
         <f aca="false">B12-C13</f>
@@ -6205,7 +6212,7 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">B13-C14</f>
@@ -6229,16 +6236,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>29</v>
@@ -6253,7 +6260,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="37"/>
     </row>
@@ -6995,7 +7002,7 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="30" t="n">
         <f aca="false">'Sprint 02 Backlog'!B3</f>
@@ -7003,14 +7010,14 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="30" t="n">
         <f aca="false">B2+7</f>
@@ -7023,10 +7030,10 @@
     </row>
     <row r="4" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -7047,7 +7054,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -7055,7 +7062,7 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="27" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -7068,7 +7075,7 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27" t="n">
         <f aca="false">B7-C8</f>
@@ -7084,7 +7091,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="n">
         <f aca="false">B8-C9</f>
@@ -7100,7 +7107,7 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="27" t="n">
         <f aca="false">B9-C10</f>
@@ -7116,7 +7123,7 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="n">
         <f aca="false">B10-C11</f>
@@ -7132,7 +7139,7 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="27" t="n">
         <f aca="false">B11-C12</f>
@@ -7148,7 +7155,7 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="27" t="n">
         <f aca="false">B12-C13</f>
@@ -7164,7 +7171,7 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">B13-C14</f>
@@ -7188,16 +7195,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>29</v>
@@ -7212,7 +7219,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="37"/>
     </row>
@@ -7954,21 +7961,21 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>44502</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="30" t="n">
         <f aca="false">B2+7</f>
@@ -7981,10 +7988,10 @@
     </row>
     <row r="4" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -8005,7 +8012,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -8013,7 +8020,7 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="27" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -8026,7 +8033,7 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27" t="n">
         <f aca="false">B7-C8</f>
@@ -8042,7 +8049,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="n">
         <f aca="false">B8-C9</f>
@@ -8058,7 +8065,7 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="27" t="n">
         <f aca="false">B9-C10</f>
@@ -8074,7 +8081,7 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="n">
         <f aca="false">B10-C11</f>
@@ -8090,7 +8097,7 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="27" t="n">
         <f aca="false">B11-C12</f>
@@ -8106,7 +8113,7 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="27" t="n">
         <f aca="false">B12-C13</f>
@@ -8122,7 +8129,7 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">B13-C14</f>
@@ -8146,16 +8153,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>29</v>
@@ -8170,7 +8177,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="37"/>
     </row>
@@ -8912,7 +8919,7 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="30" t="n">
         <f aca="false">'Sprint 04 Backlog'!B3</f>
@@ -8920,14 +8927,14 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="30" t="n">
         <f aca="false">B2+7</f>
@@ -8940,10 +8947,10 @@
     </row>
     <row r="4" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -8964,7 +8971,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -8972,7 +8979,7 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="27" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -8985,7 +8992,7 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27" t="n">
         <f aca="false">B7-C8</f>
@@ -9001,7 +9008,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="n">
         <f aca="false">B8-C9</f>
@@ -9017,7 +9024,7 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="27" t="n">
         <f aca="false">B9-C10</f>
@@ -9033,7 +9040,7 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="n">
         <f aca="false">B10-C11</f>
@@ -9049,7 +9056,7 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="27" t="n">
         <f aca="false">B11-C12</f>
@@ -9065,7 +9072,7 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="27" t="n">
         <f aca="false">B12-C13</f>
@@ -9081,7 +9088,7 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">B13-C14</f>
@@ -9105,16 +9112,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>29</v>
@@ -9129,7 +9136,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="37"/>
     </row>
@@ -9843,7 +9850,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9871,21 +9878,21 @@
     </row>
     <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B2" s="30" t="n">
         <v>44530</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
     <row r="3" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="30" t="n">
         <f aca="false">B2+7</f>
@@ -9893,17 +9900,17 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
     </row>
     <row r="4" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -9924,7 +9931,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -9932,7 +9939,7 @@
     </row>
     <row r="7" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="27" t="n">
         <f aca="false">COUNTA(D17:D995)</f>
@@ -9945,7 +9952,7 @@
     </row>
     <row r="8" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27" t="n">
         <f aca="false">B7-C8</f>
@@ -9961,7 +9968,7 @@
     </row>
     <row r="9" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="27" t="n">
         <f aca="false">B8-C9</f>
@@ -9977,7 +9984,7 @@
     </row>
     <row r="10" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="27" t="n">
         <f aca="false">B9-C10</f>
@@ -9993,7 +10000,7 @@
     </row>
     <row r="11" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="27" t="n">
         <f aca="false">B10-C11</f>
@@ -10009,7 +10016,7 @@
     </row>
     <row r="12" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B12" s="27" t="n">
         <f aca="false">B11-C12</f>
@@ -10025,7 +10032,7 @@
     </row>
     <row r="13" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B13" s="27" t="n">
         <f aca="false">B12-C13</f>
@@ -10041,7 +10048,7 @@
     </row>
     <row r="14" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B14" s="27" t="n">
         <f aca="false">B13-C14</f>
@@ -10065,16 +10072,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>29</v>
@@ -10089,7 +10096,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="37"/>
     </row>
